--- a/Shablon/ADS-222.xlsx
+++ b/Shablon/ADS-222.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="264">
   <si>
     <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
   </si>
@@ -873,6 +873,15 @@
   </si>
   <si>
     <t>gdcv2-_14</t>
+  </si>
+  <si>
+    <t>_temp</t>
+  </si>
+  <si>
+    <t>_hum</t>
+  </si>
+  <si>
+    <t>_pres</t>
   </si>
 </sst>
 </file>
@@ -1258,112 +1267,58 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,23 +1328,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1698,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A96" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1708,89 +1717,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="str">
+      <c r="A7" s="66" t="str">
         <f>"Протокол поверки № 10/"&amp;C115&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
@@ -1802,11 +1811,11 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="23" t="s">
         <v>51</v>
       </c>
@@ -1819,11 +1828,11 @@
       <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="38" t="s">
         <v>54</v>
       </c>
@@ -1834,11 +1843,11 @@
       <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="23">
         <v>2014</v>
       </c>
@@ -1849,11 +1858,11 @@
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="23" t="s">
         <v>62</v>
       </c>
@@ -1864,11 +1873,11 @@
       <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="39" t="s">
         <v>58</v>
       </c>
@@ -1879,11 +1888,11 @@
       <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="23" t="s">
         <v>63</v>
       </c>
@@ -1894,11 +1903,11 @@
       <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="21" t="s">
         <v>61</v>
       </c>
@@ -1925,86 +1934,92 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="56" t="s">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="47" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="47" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="47" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="47" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
@@ -2113,7 +2128,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="60" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -2137,7 +2152,7 @@
       <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="66"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
@@ -2149,7 +2164,7 @@
       <c r="J38" s="48"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="66"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
@@ -2161,7 +2176,7 @@
       <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="66"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
@@ -2173,7 +2188,7 @@
       <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
@@ -2192,15 +2207,15 @@
       <c r="A42" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -2209,24 +2224,24 @@
       <c r="B43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55" t="s">
+      <c r="D43" s="58"/>
+      <c r="E43" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="35" t="s">
         <v>84</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="72"/>
+      <c r="J43" s="78"/>
     </row>
     <row r="44" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -2235,22 +2250,22 @@
       <c r="B44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55" t="s">
+      <c r="D44" s="58"/>
+      <c r="E44" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="55"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="35" t="s">
         <v>90</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -2259,22 +2274,22 @@
       <c r="B45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55" t="s">
+      <c r="D45" s="58"/>
+      <c r="E45" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="55"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="35" t="s">
         <v>96</v>
       </c>
       <c r="H45" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="74"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -2283,22 +2298,22 @@
       <c r="B46" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="55"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="35" t="s">
         <v>103</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="73"/>
-      <c r="J46" s="74"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="80"/>
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -2307,22 +2322,22 @@
       <c r="B47" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55" t="s">
+      <c r="D47" s="58"/>
+      <c r="E47" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="55"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="35" t="s">
         <v>109</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="74"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="80"/>
     </row>
     <row r="48" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
@@ -2331,22 +2346,22 @@
       <c r="B48" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55" t="s">
+      <c r="D48" s="58"/>
+      <c r="E48" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="55"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="35" t="s">
         <v>115</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="80"/>
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
@@ -2355,22 +2370,22 @@
       <c r="B49" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F49" s="55"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="35" t="s">
         <v>121</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="73"/>
-      <c r="J49" s="74"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
     </row>
     <row r="50" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -2379,22 +2394,22 @@
       <c r="B50" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55" t="s">
+      <c r="D50" s="58"/>
+      <c r="E50" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="55"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="35" t="s">
         <v>127</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="73"/>
-      <c r="J50" s="74"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="80"/>
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -2403,22 +2418,22 @@
       <c r="B51" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55" t="s">
+      <c r="D51" s="58"/>
+      <c r="E51" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="35" t="s">
         <v>132</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="I51" s="73"/>
-      <c r="J51" s="74"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="80"/>
     </row>
     <row r="52" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -2427,22 +2442,22 @@
       <c r="B52" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55" t="s">
+      <c r="D52" s="58"/>
+      <c r="E52" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="55"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="35" t="s">
         <v>137</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="I52" s="73"/>
-      <c r="J52" s="74"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="80"/>
     </row>
     <row r="53" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -2451,90 +2466,90 @@
       <c r="B53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55" t="s">
+      <c r="D53" s="58"/>
+      <c r="E53" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="55"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="35" t="s">
         <v>142</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="74"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="80"/>
     </row>
     <row r="54" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55" t="s">
+      <c r="D54" s="58"/>
+      <c r="E54" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="F54" s="55"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="42" t="s">
         <v>240</v>
       </c>
       <c r="H54" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="I54" s="73"/>
-      <c r="J54" s="74"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="80"/>
     </row>
     <row r="55" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55" t="s">
+      <c r="D55" s="58"/>
+      <c r="E55" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="55"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="42" t="s">
         <v>242</v>
       </c>
       <c r="H55" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="I55" s="73"/>
-      <c r="J55" s="74"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="80"/>
     </row>
     <row r="56" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55" t="s">
+      <c r="D56" s="58"/>
+      <c r="E56" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="42" t="s">
         <v>246</v>
       </c>
       <c r="H56" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="I56" s="75"/>
-      <c r="J56" s="76"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="82"/>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
@@ -2547,7 +2562,7 @@
       <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="60" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="48" t="s">
@@ -2571,7 +2586,7 @@
       <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
@@ -2583,7 +2598,7 @@
       <c r="J59" s="48"/>
     </row>
     <row r="60" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
@@ -2595,7 +2610,7 @@
       <c r="J60" s="48"/>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="66"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
@@ -2607,7 +2622,7 @@
       <c r="J61" s="48"/>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="66"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
@@ -2623,18 +2638,18 @@
       <c r="J62" s="48"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -2643,24 +2658,24 @@
       <c r="B64" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55" t="s">
+      <c r="D64" s="58"/>
+      <c r="E64" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="35" t="s">
         <v>147</v>
       </c>
       <c r="H64" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="I64" s="90" t="s">
+      <c r="I64" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="J64" s="90"/>
+      <c r="J64" s="83"/>
     </row>
     <row r="65" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -2669,22 +2684,22 @@
       <c r="B65" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="35" t="s">
         <v>151</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
     </row>
     <row r="66" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
@@ -2693,22 +2708,22 @@
       <c r="B66" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55" t="s">
+      <c r="D66" s="58"/>
+      <c r="E66" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="F66" s="55"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="35" t="s">
         <v>155</v>
       </c>
       <c r="H66" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
     </row>
     <row r="67" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -2717,22 +2732,22 @@
       <c r="B67" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55" t="s">
+      <c r="D67" s="58"/>
+      <c r="E67" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="55"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="35" t="s">
         <v>159</v>
       </c>
       <c r="H67" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
     </row>
     <row r="68" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -2741,22 +2756,22 @@
       <c r="B68" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55" t="s">
+      <c r="D68" s="58"/>
+      <c r="E68" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F68" s="55"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="35" t="s">
         <v>163</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
     </row>
     <row r="69" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
@@ -2765,22 +2780,22 @@
       <c r="B69" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55" t="s">
+      <c r="D69" s="58"/>
+      <c r="E69" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="F69" s="55"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="35" t="s">
         <v>167</v>
       </c>
       <c r="H69" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
@@ -2789,22 +2804,22 @@
       <c r="B70" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55" t="s">
+      <c r="D70" s="58"/>
+      <c r="E70" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="F70" s="55"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="35" t="s">
         <v>171</v>
       </c>
       <c r="H70" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
     </row>
     <row r="71" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -2813,22 +2828,22 @@
       <c r="B71" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55" t="s">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="55"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="35" t="s">
         <v>175</v>
       </c>
       <c r="H71" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
@@ -2837,22 +2852,22 @@
       <c r="B72" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55" t="s">
+      <c r="D72" s="58"/>
+      <c r="E72" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="F72" s="55"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="35" t="s">
         <v>179</v>
       </c>
       <c r="H72" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
     </row>
     <row r="73" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
@@ -2861,22 +2876,22 @@
       <c r="B73" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F73" s="55"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="35" t="s">
         <v>183</v>
       </c>
       <c r="H73" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
     </row>
     <row r="74" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -2885,90 +2900,90 @@
       <c r="B74" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55" t="s">
+      <c r="D74" s="58"/>
+      <c r="E74" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="F74" s="55"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="35" t="s">
         <v>187</v>
       </c>
       <c r="H74" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
     </row>
     <row r="75" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55" t="s">
+      <c r="D75" s="58"/>
+      <c r="E75" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="F75" s="55"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="44" t="s">
         <v>255</v>
       </c>
       <c r="H75" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
     </row>
     <row r="76" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55" t="s">
+      <c r="D76" s="58"/>
+      <c r="E76" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="F76" s="55"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="44" t="s">
         <v>256</v>
       </c>
       <c r="H76" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
     </row>
     <row r="77" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55" t="s">
+      <c r="D77" s="58"/>
+      <c r="E77" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="F77" s="55"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="44" t="s">
         <v>257</v>
       </c>
       <c r="H77" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
     </row>
     <row r="78" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
@@ -2995,7 +3010,7 @@
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="85" t="s">
+      <c r="A81" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="48" t="s">
@@ -3017,7 +3032,7 @@
       <c r="J81" s="48"/>
     </row>
     <row r="82" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="85"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
       <c r="D82" s="48"/>
@@ -3029,152 +3044,152 @@
       <c r="J82" s="48"/>
     </row>
     <row r="83" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="85"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
       <c r="D83" s="48"/>
-      <c r="E83" s="47" t="s">
+      <c r="E83" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47" t="s">
+      <c r="F83" s="61"/>
+      <c r="G83" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="47"/>
+      <c r="H83" s="61"/>
       <c r="I83" s="48"/>
       <c r="J83" s="48"/>
     </row>
     <row r="84" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="79" t="s">
+      <c r="A84" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="53">
+      <c r="D84" s="69"/>
+      <c r="E84" s="70">
         <v>0</v>
       </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="51">
+      <c r="F84" s="71"/>
+      <c r="G84" s="72">
         <v>0.1</v>
       </c>
-      <c r="H84" s="52"/>
-      <c r="I84" s="47" t="s">
+      <c r="H84" s="73"/>
+      <c r="I84" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J84" s="47"/>
+      <c r="J84" s="61"/>
     </row>
     <row r="85" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="49" t="s">
+      <c r="A85" s="74"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="53">
+      <c r="D85" s="69"/>
+      <c r="E85" s="70">
         <v>0</v>
       </c>
-      <c r="F85" s="54"/>
-      <c r="G85" s="51">
+      <c r="F85" s="71"/>
+      <c r="G85" s="72">
         <v>0.1</v>
       </c>
-      <c r="H85" s="52"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
     </row>
     <row r="86" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="74"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="53">
+      <c r="D86" s="69"/>
+      <c r="E86" s="70">
         <v>0.2</v>
       </c>
-      <c r="F86" s="54"/>
-      <c r="G86" s="51">
+      <c r="F86" s="71"/>
+      <c r="G86" s="72">
         <v>0.2</v>
       </c>
-      <c r="H86" s="52"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
     </row>
     <row r="87" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="49" t="s">
+      <c r="A87" s="74"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="53">
+      <c r="D87" s="69"/>
+      <c r="E87" s="70">
         <v>0.06</v>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="51">
+      <c r="F87" s="71"/>
+      <c r="G87" s="72">
         <v>0.06</v>
       </c>
-      <c r="H87" s="52"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="49" t="s">
+      <c r="A88" s="74"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="53">
+      <c r="D88" s="69"/>
+      <c r="E88" s="70">
         <v>0.1</v>
       </c>
-      <c r="F88" s="54"/>
-      <c r="G88" s="51">
+      <c r="F88" s="71"/>
+      <c r="G88" s="72">
         <v>0.06</v>
       </c>
-      <c r="H88" s="52"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
     </row>
     <row r="89" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="74"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="53">
+      <c r="D89" s="69"/>
+      <c r="E89" s="70">
         <v>0</v>
       </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="51">
+      <c r="F89" s="71"/>
+      <c r="G89" s="72">
         <v>0.1</v>
       </c>
-      <c r="H89" s="52"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
     </row>
     <row r="90" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="49" t="s">
+      <c r="A90" s="74"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="53">
+      <c r="D90" s="69"/>
+      <c r="E90" s="70">
         <v>0</v>
       </c>
-      <c r="F90" s="54"/>
-      <c r="G90" s="51">
+      <c r="F90" s="71"/>
+      <c r="G90" s="72">
         <v>0</v>
       </c>
-      <c r="H90" s="52"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
@@ -3204,48 +3219,48 @@
       <c r="A94" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="56" t="s">
+      <c r="C94" s="50"/>
+      <c r="D94" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E94" s="57"/>
+      <c r="E94" s="50"/>
       <c r="F94" s="48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="48"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="87"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="52"/>
       <c r="F95" s="48"/>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="48"/>
-      <c r="B96" s="86"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="87"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="52"/>
       <c r="F96" s="48"/>
     </row>
     <row r="97" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="48"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="87"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="52"/>
       <c r="F97" s="48"/>
     </row>
     <row r="98" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="59"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="54"/>
       <c r="F98" s="48"/>
     </row>
     <row r="99" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,7 +3295,7 @@
       <c r="E100" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F100" s="47" t="s">
+      <c r="F100" s="61" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3300,7 +3315,7 @@
       <c r="E101" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F101" s="47"/>
+      <c r="F101" s="61"/>
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
@@ -3318,7 +3333,7 @@
       <c r="E102" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F102" s="47"/>
+      <c r="F102" s="61"/>
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
@@ -3336,7 +3351,7 @@
       <c r="E103" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F103" s="47"/>
+      <c r="F103" s="61"/>
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
@@ -3354,7 +3369,7 @@
       <c r="E104" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F104" s="47"/>
+      <c r="F104" s="61"/>
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
@@ -3372,7 +3387,7 @@
       <c r="E105" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F105" s="47"/>
+      <c r="F105" s="61"/>
     </row>
     <row r="106" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
@@ -3390,7 +3405,7 @@
       <c r="E106" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F106" s="47"/>
+      <c r="F106" s="61"/>
     </row>
     <row r="107" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
@@ -3408,7 +3423,7 @@
       <c r="E107" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F107" s="47"/>
+      <c r="F107" s="61"/>
     </row>
     <row r="108" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
@@ -3426,7 +3441,7 @@
       <c r="E108" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F108" s="47"/>
+      <c r="F108" s="61"/>
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
@@ -3444,7 +3459,7 @@
       <c r="E109" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F109" s="47"/>
+      <c r="F109" s="61"/>
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
@@ -3462,7 +3477,7 @@
       <c r="E110" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F110" s="47"/>
+      <c r="F110" s="61"/>
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
@@ -3481,10 +3496,10 @@
       <c r="F112" s="13"/>
     </row>
     <row r="113" spans="1:8" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="77" t="s">
+      <c r="A113" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="77"/>
+      <c r="B113" s="63"/>
       <c r="C113" s="24"/>
       <c r="D113" s="25"/>
       <c r="E113" s="26"/>
@@ -3493,32 +3508,32 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="77"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="25"/>
       <c r="D114" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E114" s="82" t="s">
+      <c r="E114" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="F114" s="83"/>
+      <c r="F114" s="65"/>
       <c r="G114" s="26" t="s">
         <v>70</v>
       </c>
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="77" t="s">
+      <c r="A115" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B115" s="77"/>
-      <c r="C115" s="78" t="s">
+      <c r="B115" s="63"/>
+      <c r="C115" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D115" s="78"/>
+      <c r="D115" s="67"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -3568,29 +3583,101 @@
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B94:C98"/>
-    <mergeCell ref="D94:E98"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G37:H40"/>
-    <mergeCell ref="I37:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:D41"/>
-    <mergeCell ref="E37:F41"/>
-    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="I81:J83"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="I84:J90"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C81:D83"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:D62"/>
+    <mergeCell ref="E58:F62"/>
+    <mergeCell ref="G58:H61"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I58:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I43:J56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="I64:J77"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="F94:F99"/>
+    <mergeCell ref="F100:F110"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A9:C9"/>
@@ -3615,102 +3702,30 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="F94:F99"/>
-    <mergeCell ref="F100:F110"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B94:C98"/>
+    <mergeCell ref="D94:E98"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G37:H40"/>
+    <mergeCell ref="I37:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:D41"/>
+    <mergeCell ref="E37:F41"/>
+    <mergeCell ref="A75:A77"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I58:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I43:J56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="I64:J77"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:D62"/>
-    <mergeCell ref="E58:F62"/>
-    <mergeCell ref="G58:H61"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="I81:J83"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="I84:J90"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C81:D83"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.39370078740157483"/>
